--- a/Module 5/1- Working with Excel/Working Documents/Annual_Report.xlsx
+++ b/Module 5/1- Working with Excel/Working Documents/Annual_Report.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianca.dragu\Documents\StudioX\Reboot your skills\Lessons\Working with Excel\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edmun\Desktop\SCS-3757-Robotic-and-Intelligent-Process-Automation\Module 5\1- Working with Excel\Working Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7B74B-D308-436A-BA31-1DBBC68D5787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="6" r:id="rId1"/>
-    <sheet name="March" sheetId="4" r:id="rId2"/>
-    <sheet name="February" sheetId="3" r:id="rId3"/>
-    <sheet name="January" sheetId="1" r:id="rId4"/>
+    <sheet name="April" sheetId="7" r:id="rId2"/>
+    <sheet name="March" sheetId="4" r:id="rId3"/>
+    <sheet name="February" sheetId="3" r:id="rId4"/>
+    <sheet name="January" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="35">
   <si>
     <t>Expenses</t>
   </si>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -984,23 +984,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39ACB9EA-B2D7-4452-AC61-49BB6BA127D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1164,23 +1164,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395A0D05-9CBE-4A74-BB94-A684054E771F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1210,8 +1210,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1224,8 +1227,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1238,8 +1244,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1252,8 +1261,11 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1266,8 +1278,11 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1280,8 +1295,11 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1294,8 +1312,11 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1308,8 +1329,11 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1322,8 +1346,11 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1335,6 +1362,9 @@
       </c>
       <c r="D11" t="s">
         <v>33</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1344,23 +1374,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9B5C3-8ABD-45D0-ACEE-39A97F277A38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1377,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1503,7 +1533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1524,23 +1554,203 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1557,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1599,7 +1809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1627,7 +1837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +1851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1683,7 +1893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1704,12 +1914,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B47328280439544AB5C41C56297158F8" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fabe9a139e808be419ddedd7fa102e6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="825ee06b-ca9e-4fae-a309-081319cc5c11" xmlns:ns3="328982d7-d2af-46e2-9ab4-9b069b3e82d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77b7738b4c2769ab1dab0c0abe4f9661" ns2:_="" ns3:_="">
     <xsd:import namespace="825ee06b-ca9e-4fae-a309-081319cc5c11"/>
@@ -1906,16 +2125,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C0C94DB-A2D1-48DB-9E25-F8C0365D6C15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E37E7D-154A-4B51-9F3C-67B552A03AC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1924,7 +2142,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA60AEE-4005-4AF0-AA8D-54EB2A0D1B08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1941,12 +2159,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C0C94DB-A2D1-48DB-9E25-F8C0365D6C15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>